--- a/Tools/Excel/ResPathConfig.xlsx
+++ b/Tools/Excel/ResPathConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28215" windowHeight="12510"/>
+    <workbookView windowWidth="16695" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>ID索引</t>
   </si>
@@ -36,10 +36,13 @@
     <t>备用</t>
   </si>
   <si>
-    <t>Resources下路径或者响应bundle路径</t>
+    <t>Resources下路径或者bundle路径</t>
   </si>
   <si>
     <t>0：Resources;1:bundle</t>
+  </si>
+  <si>
+    <t>Arts/Gui/Prefabs/uiLoginPanel.prefab</t>
   </si>
 </sst>
 </file>
@@ -47,12 +50,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,13 +67,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,29 +100,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -142,9 +131,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,14 +193,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,61 +241,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,115 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,21 +455,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +509,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -541,152 +537,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,9 +693,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1064,10 +1057,10 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1099,6 +1092,9 @@
     <row r="4" spans="1:3">
       <c r="A4">
         <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0</v>

--- a/Tools/Excel/ResPathConfig.xlsx
+++ b/Tools/Excel/ResPathConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16695" windowHeight="7500"/>
+    <workbookView windowWidth="27015" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>ID索引</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>是否bundle</t>
+  </si>
+  <si>
+    <t>资源的生存时间(资源管理刷新)</t>
   </si>
   <si>
     <t>int</t>
@@ -42,6 +45,9 @@
     <t>0：Resources;1:bundle</t>
   </si>
   <si>
+    <t>资源的生存时间 -2 永久存在 -1 当前系统 大于0则按时间删除</t>
+  </si>
+  <si>
     <t>Arts/Gui/Prefabs/uiLoginPanel.prefab</t>
   </si>
 </sst>
@@ -50,10 +56,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1043,20 +1049,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1066,38 +1073,50 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
+    <row r="2" s="2" customFormat="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:3">
+    <row r="3" s="3" customFormat="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>0</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/Excel/ResPathConfig.xlsx
+++ b/Tools/Excel/ResPathConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27015" windowHeight="9660"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>ID索引</t>
   </si>
@@ -50,6 +50,9 @@
   <si>
     <t>Arts/Gui/Prefabs/uiLoginPanel.prefab</t>
   </si>
+  <si>
+    <t>Arts/Gui/Textures/airfightSheet.prefab</t>
+  </si>
 </sst>
 </file>
 
@@ -76,6 +79,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -83,11 +101,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,15 +187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,29 +195,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,39 +210,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,35 +218,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,187 +250,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +441,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,15 +485,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,17 +504,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,21 +533,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -546,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,133 +561,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,13 +1052,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
@@ -1117,6 +1120,20 @@
       </c>
       <c r="D4">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/Excel/ResPathConfig.xlsx
+++ b/Tools/Excel/ResPathConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>ID索引</t>
   </si>
@@ -34,6 +34,18 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>resType</t>
+  </si>
+  <si>
+    <t>resLiveTime</t>
   </si>
   <si>
     <t>备用</t>
@@ -60,8 +72,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -79,6 +91,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -87,34 +142,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -124,18 +151,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,15 +198,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,13 +207,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -209,6 +214,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -250,19 +262,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,126 +430,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -401,36 +443,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,6 +453,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,17 +497,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,31 +530,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,133 +573,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,13 +1064,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
@@ -1094,45 +1106,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:4">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>100</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>2001</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>2001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>-2</v>
       </c>
     </row>
